--- a/data/trans_orig/COM_FRUTA-Clase-trans_orig.xlsx
+++ b/data/trans_orig/COM_FRUTA-Clase-trans_orig.xlsx
@@ -965,97 +965,97 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>334</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,22%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>318</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>0,22%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T6" s="2" t="inlineStr">
-        <is>
-          <t>326</t>
-        </is>
-      </c>
-      <c r="U6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1647,97 +1647,97 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>321</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,39%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>313</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O12" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P12" s="2" t="inlineStr">
-        <is>
-          <t>0,28%</t>
-        </is>
-      </c>
-      <c r="Q12" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T12" s="2" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="U12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -2329,97 +2329,97 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>342</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>0,21%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K18" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O18" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P18" s="2" t="inlineStr">
-        <is>
-          <t>0,52%</t>
-        </is>
-      </c>
-      <c r="Q18" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S18" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T18" s="2" t="inlineStr">
-        <is>
-          <t>339</t>
-        </is>
-      </c>
-      <c r="U18" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -3011,97 +3011,97 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>334</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>0,19%</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K24" s="2" t="inlineStr">
+      <c r="R24" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L24" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M24" s="2" t="inlineStr">
-        <is>
-          <t>333</t>
-        </is>
-      </c>
-      <c r="N24" s="2" t="inlineStr">
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O24" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P24" s="2" t="inlineStr">
-        <is>
-          <t>0,18%</t>
-        </is>
-      </c>
-      <c r="Q24" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R24" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S24" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T24" s="2" t="inlineStr">
-        <is>
-          <t>334</t>
-        </is>
-      </c>
-      <c r="U24" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>0,09%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -3693,97 +3693,97 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>335</t>
-        </is>
-      </c>
-      <c r="G30" s="2" t="inlineStr">
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H30" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I30" s="2" t="inlineStr">
-        <is>
-          <t>0,42%</t>
-        </is>
-      </c>
-      <c r="J30" s="2" t="inlineStr">
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K30" s="2" t="inlineStr">
+      <c r="R30" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L30" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M30" s="2" t="inlineStr">
-        <is>
-          <t>342</t>
-        </is>
-      </c>
-      <c r="N30" s="2" t="inlineStr">
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U30" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O30" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P30" s="2" t="inlineStr">
-        <is>
-          <t>0,26%</t>
-        </is>
-      </c>
-      <c r="Q30" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R30" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S30" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T30" s="2" t="inlineStr">
-        <is>
-          <t>340</t>
-        </is>
-      </c>
-      <c r="U30" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -4375,97 +4375,97 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F36" s="2" t="inlineStr">
-        <is>
-          <t>331</t>
-        </is>
-      </c>
-      <c r="G36" s="2" t="inlineStr">
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H36" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I36" s="2" t="inlineStr">
-        <is>
-          <t>0,7%</t>
-        </is>
-      </c>
-      <c r="J36" s="2" t="inlineStr">
+      <c r="O36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q36" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K36" s="2" t="inlineStr">
+      <c r="R36" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L36" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M36" s="2" t="inlineStr">
-        <is>
-          <t>330</t>
-        </is>
-      </c>
-      <c r="N36" s="2" t="inlineStr">
+      <c r="S36" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T36" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U36" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O36" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P36" s="2" t="inlineStr">
-        <is>
-          <t>0,27%</t>
-        </is>
-      </c>
-      <c r="Q36" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R36" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S36" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T36" s="2" t="inlineStr">
-        <is>
-          <t>331</t>
-        </is>
-      </c>
-      <c r="U36" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>0,2%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -5057,97 +5057,97 @@
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F42" s="2" t="inlineStr">
-        <is>
-          <t>335</t>
-        </is>
-      </c>
-      <c r="G42" s="2" t="inlineStr">
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H42" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I42" s="2" t="inlineStr">
-        <is>
-          <t>0,05%</t>
-        </is>
-      </c>
-      <c r="J42" s="2" t="inlineStr">
+      <c r="O42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q42" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K42" s="2" t="inlineStr">
+      <c r="R42" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L42" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M42" s="2" t="inlineStr">
-        <is>
-          <t>328</t>
-        </is>
-      </c>
-      <c r="N42" s="2" t="inlineStr">
+      <c r="S42" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T42" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U42" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O42" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P42" s="2" t="inlineStr">
-        <is>
-          <t>0,04%</t>
-        </is>
-      </c>
-      <c r="Q42" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R42" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S42" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T42" s="2" t="inlineStr">
-        <is>
-          <t>331</t>
-        </is>
-      </c>
-      <c r="U42" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V42" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W42" s="2" t="inlineStr">
         <is>
-          <t>0,02%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -9165,12 +9165,12 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>770</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -9180,12 +9180,12 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">

--- a/data/trans_orig/COM_FRUTA-Clase-trans_orig.xlsx
+++ b/data/trans_orig/COM_FRUTA-Clase-trans_orig.xlsx
@@ -544,7 +544,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Comercios de frutas y verduras en País Vasco</t>
+          <t>Comercios de frutas y verduras en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5560,7 +5560,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Comercios de frutas y verduras en Barcelona</t>
+          <t>Comercios de frutas y verduras en Barcelona (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/COM_FRUTA-Clase-trans_orig.xlsx
+++ b/data/trans_orig/COM_FRUTA-Clase-trans_orig.xlsx
@@ -734,32 +734,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9418</t>
+          <t>8664</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6788</t>
+          <t>6240</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12183</t>
+          <t>11873</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>5,17%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,16%</t>
+          <t>7,09%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -769,32 +769,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>10729</t>
+          <t>10315</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>8018</t>
+          <t>7935</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>14457</t>
+          <t>13666</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>9,9%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -804,32 +804,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>20147</t>
+          <t>18979</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>16345</t>
+          <t>15450</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>24429</t>
+          <t>23320</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>8,27%</t>
+          <t>6,79%</t>
         </is>
       </c>
     </row>
@@ -847,32 +847,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12331</t>
+          <t>13775</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9810</t>
+          <t>10831</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15543</t>
+          <t>17315</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>8,22%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,42%</t>
+          <t>10,34%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -882,32 +882,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10214</t>
+          <t>11516</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7767</t>
+          <t>8525</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>13348</t>
+          <t>14720</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>9,14%</t>
+          <t>8,36%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -917,32 +917,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>22545</t>
+          <t>25291</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>18938</t>
+          <t>21073</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>26579</t>
+          <t>29717</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>7,64%</t>
+          <t>7,36%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>9,0%</t>
+          <t>8,65%</t>
         </is>
       </c>
     </row>
@@ -1073,32 +1073,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>43659</t>
+          <t>47743</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>38697</t>
+          <t>42168</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>48763</t>
+          <t>52889</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,26%</t>
+          <t>28,5%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>25,93%</t>
+          <t>25,17%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>32,68%</t>
+          <t>31,58%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1108,67 +1108,67 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>40457</t>
+          <t>47466</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>35917</t>
+          <t>42331</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>44994</t>
+          <t>53859</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
+          <t>26,95%</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>24,03%</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>30,58%</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>95209</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>88336</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>104345</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
           <t>27,71%</t>
         </is>
       </c>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>24,6%</t>
-        </is>
-      </c>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>30,82%</t>
-        </is>
-      </c>
-      <c r="Q7" s="2" t="inlineStr">
-        <is>
-          <t>496</t>
-        </is>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>84116</t>
-        </is>
-      </c>
-      <c r="S7" s="2" t="inlineStr">
-        <is>
-          <t>77217</t>
-        </is>
-      </c>
-      <c r="T7" s="2" t="inlineStr">
-        <is>
-          <t>90455</t>
-        </is>
-      </c>
-      <c r="U7" s="2" t="inlineStr">
-        <is>
-          <t>28,49%</t>
-        </is>
-      </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>26,16%</t>
+          <t>25,71%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>30,64%</t>
+          <t>30,37%</t>
         </is>
       </c>
     </row>
@@ -1186,32 +1186,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>83815</t>
+          <t>97317</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>78608</t>
+          <t>91768</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>89593</t>
+          <t>103297</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>56,17%</t>
+          <t>58,1%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>52,68%</t>
+          <t>54,79%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>60,04%</t>
+          <t>61,67%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1221,32 +1221,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>84589</t>
+          <t>106835</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>79268</t>
+          <t>100552</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>89507</t>
+          <t>112969</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>57,94%</t>
+          <t>60,66%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>54,3%</t>
+          <t>57,09%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>61,31%</t>
+          <t>64,14%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1256,32 +1256,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>168404</t>
+          <t>204152</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>160686</t>
+          <t>195186</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>175915</t>
+          <t>211941</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>57,05%</t>
+          <t>59,41%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>54,43%</t>
+          <t>56,8%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>59,59%</t>
+          <t>61,68%</t>
         </is>
       </c>
     </row>
@@ -1299,17 +1299,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>149223</t>
+          <t>167499</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>149223</t>
+          <t>167499</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>149223</t>
+          <t>167499</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1334,17 +1334,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>145989</t>
+          <t>176133</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>145989</t>
+          <t>176133</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>145989</t>
+          <t>176133</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1369,17 +1369,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>295212</t>
+          <t>343632</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>295212</t>
+          <t>343632</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>295212</t>
+          <t>343632</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1416,32 +1416,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3239</t>
+          <t>3560</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1965</t>
+          <t>2118</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5349</t>
+          <t>5878</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>6,33%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1451,32 +1451,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3803</t>
+          <t>3847</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2470</t>
+          <t>2538</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>5589</t>
+          <t>6069</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1486,32 +1486,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>7042</t>
+          <t>7407</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>5005</t>
+          <t>5118</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>9511</t>
+          <t>10459</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>4,79%</t>
         </is>
       </c>
     </row>
@@ -1529,67 +1529,67 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7600</t>
+          <t>6831</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5702</t>
+          <t>4980</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10345</t>
+          <t>9092</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,2%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
+          <t>5,36%</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>9,79%</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>8666</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>6382</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>11423</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>6,9%</t>
         </is>
       </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>12,52%</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>8892</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>6839</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>11762</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>8,07%</t>
-        </is>
-      </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>9,1%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1599,32 +1599,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>16492</t>
+          <t>15497</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>13268</t>
+          <t>12323</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>20463</t>
+          <t>18970</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>8,55%</t>
+          <t>7,09%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>6,88%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>10,61%</t>
+          <t>8,68%</t>
         </is>
       </c>
     </row>
@@ -1755,32 +1755,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>24125</t>
+          <t>27491</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>20195</t>
+          <t>23653</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>27845</t>
+          <t>31766</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>29,19%</t>
+          <t>29,6%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>24,44%</t>
+          <t>25,47%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>33,69%</t>
+          <t>34,2%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1790,32 +1790,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>33084</t>
+          <t>34800</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>28707</t>
+          <t>30216</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>37345</t>
+          <t>40114</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>30,04%</t>
+          <t>27,71%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>26,07%</t>
+          <t>24,06%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>33,91%</t>
+          <t>31,94%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1825,32 +1825,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>57209</t>
+          <t>62291</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>51827</t>
+          <t>56560</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>63199</t>
+          <t>68797</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>29,68%</t>
+          <t>28,51%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>26,88%</t>
+          <t>25,89%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>32,78%</t>
+          <t>31,49%</t>
         </is>
       </c>
     </row>
@@ -1868,32 +1868,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>47679</t>
+          <t>55000</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>43517</t>
+          <t>50249</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>51901</t>
+          <t>59309</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>57,69%</t>
+          <t>59,21%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>52,66%</t>
+          <t>54,1%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>62,8%</t>
+          <t>63,85%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1903,32 +1903,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>64355</t>
+          <t>78272</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>59614</t>
+          <t>72777</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>68274</t>
+          <t>83349</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>58,43%</t>
+          <t>62,33%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>54,13%</t>
+          <t>57,95%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>61,99%</t>
+          <t>66,37%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1938,32 +1938,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>112034</t>
+          <t>133272</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>106072</t>
+          <t>126730</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>118324</t>
+          <t>139642</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>58,12%</t>
+          <t>61,0%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>55,02%</t>
+          <t>58,01%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>61,38%</t>
+          <t>63,92%</t>
         </is>
       </c>
     </row>
@@ -1981,17 +1981,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>82643</t>
+          <t>92882</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>82643</t>
+          <t>92882</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>82643</t>
+          <t>92882</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2016,17 +2016,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>110134</t>
+          <t>125585</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>110134</t>
+          <t>125585</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>110134</t>
+          <t>125585</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2051,17 +2051,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>192777</t>
+          <t>218467</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>192777</t>
+          <t>218467</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>192777</t>
+          <t>218467</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2098,32 +2098,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6491</t>
+          <t>5137</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4467</t>
+          <t>3636</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>9109</t>
+          <t>7403</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2133,32 +2133,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2515</t>
+          <t>1924</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>1386</t>
+          <t>1030</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>4309</t>
+          <t>3269</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2168,32 +2168,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>9006</t>
+          <t>7062</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>6516</t>
+          <t>5235</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>11961</t>
+          <t>9779</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>4,47%</t>
         </is>
       </c>
     </row>
@@ -2211,32 +2211,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>11414</t>
+          <t>10382</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8918</t>
+          <t>7920</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>14625</t>
+          <t>13653</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>6,6%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,89%</t>
+          <t>8,69%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2246,32 +2246,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5160</t>
+          <t>4923</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>3534</t>
+          <t>3250</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>7452</t>
+          <t>6923</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>8,07%</t>
+          <t>8,02%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>11,65%</t>
+          <t>11,28%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2281,32 +2281,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>16574</t>
+          <t>15304</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>13620</t>
+          <t>12275</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>20509</t>
+          <t>18538</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>7,26%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>8,98%</t>
+          <t>8,48%</t>
         </is>
       </c>
     </row>
@@ -2437,32 +2437,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>55117</t>
+          <t>49656</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>49746</t>
+          <t>44413</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>61100</t>
+          <t>54814</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>33,52%</t>
+          <t>31,59%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>30,25%</t>
+          <t>28,26%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>37,16%</t>
+          <t>34,87%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2472,32 +2472,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>19513</t>
+          <t>17643</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>16362</t>
+          <t>14719</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>22829</t>
+          <t>20974</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>30,51%</t>
+          <t>28,75%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>25,58%</t>
+          <t>23,98%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>35,69%</t>
+          <t>34,17%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2507,32 +2507,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>74630</t>
+          <t>67299</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>67861</t>
+          <t>62097</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>80809</t>
+          <t>73051</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>32,67%</t>
+          <t>30,79%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>29,71%</t>
+          <t>28,41%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>35,38%</t>
+          <t>33,42%</t>
         </is>
       </c>
     </row>
@@ -2550,32 +2550,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>91419</t>
+          <t>92003</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>84885</t>
+          <t>86270</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>97191</t>
+          <t>97502</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>55,59%</t>
+          <t>58,53%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>51,62%</t>
+          <t>54,89%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>59,1%</t>
+          <t>62,03%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2585,32 +2585,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>36774</t>
+          <t>36884</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>33271</t>
+          <t>33179</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>40038</t>
+          <t>39823</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>57,49%</t>
+          <t>60,1%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>52,02%</t>
+          <t>54,06%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>62,6%</t>
+          <t>64,89%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2620,32 +2620,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>128193</t>
+          <t>128887</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>121261</t>
+          <t>121681</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>135122</t>
+          <t>134520</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>56,13%</t>
+          <t>58,97%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>53,09%</t>
+          <t>55,68%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>59,16%</t>
+          <t>61,55%</t>
         </is>
       </c>
     </row>
@@ -2663,17 +2663,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>164441</t>
+          <t>157178</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>164441</t>
+          <t>157178</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>164441</t>
+          <t>157178</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2698,17 +2698,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>63961</t>
+          <t>61374</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>63961</t>
+          <t>61374</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>63961</t>
+          <t>61374</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2733,17 +2733,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>228402</t>
+          <t>218552</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>228402</t>
+          <t>218552</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>228402</t>
+          <t>218552</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2780,32 +2780,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>9956</t>
+          <t>9235</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>7493</t>
+          <t>6797</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>13014</t>
+          <t>12151</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>7,39%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2815,32 +2815,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>6777</t>
+          <t>7145</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>4927</t>
+          <t>5160</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>9515</t>
+          <t>10332</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>5,48%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2850,32 +2850,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>16733</t>
+          <t>16380</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>13429</t>
+          <t>12962</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>20704</t>
+          <t>20172</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>5,55%</t>
         </is>
       </c>
     </row>
@@ -2893,32 +2893,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>12904</t>
+          <t>12097</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>10128</t>
+          <t>9540</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>16384</t>
+          <t>15225</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>7,33%</t>
+          <t>6,91%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>9,3%</t>
+          <t>8,7%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2928,32 +2928,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>12084</t>
+          <t>12382</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>9522</t>
+          <t>9632</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>15261</t>
+          <t>15675</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>8,32%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2963,32 +2963,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>24988</t>
+          <t>24479</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>21055</t>
+          <t>20593</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>29419</t>
+          <t>28914</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>6,98%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>7,95%</t>
         </is>
       </c>
     </row>
@@ -3119,32 +3119,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>53968</t>
+          <t>52742</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>48946</t>
+          <t>47180</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>59787</t>
+          <t>57715</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>30,65%</t>
+          <t>30,12%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>27,79%</t>
+          <t>26,95%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>33,95%</t>
+          <t>32,96%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3154,32 +3154,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>56406</t>
+          <t>56638</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>50509</t>
+          <t>50978</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>62349</t>
+          <t>62171</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>30,99%</t>
+          <t>30,06%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>27,75%</t>
+          <t>27,06%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>34,25%</t>
+          <t>33,0%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3189,32 +3189,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>110374</t>
+          <t>109380</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>102823</t>
+          <t>101929</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>118085</t>
+          <t>116640</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>30,82%</t>
+          <t>30,09%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>28,71%</t>
+          <t>28,04%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>32,97%</t>
+          <t>32,09%</t>
         </is>
       </c>
     </row>
@@ -3232,32 +3232,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>99271</t>
+          <t>101020</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>93134</t>
+          <t>95797</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>104547</t>
+          <t>107484</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>56,37%</t>
+          <t>57,69%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>52,89%</t>
+          <t>54,71%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>59,37%</t>
+          <t>61,39%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3267,32 +3267,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>106749</t>
+          <t>112228</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>100619</t>
+          <t>106062</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>112927</t>
+          <t>118210</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>58,65%</t>
+          <t>59,57%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>55,28%</t>
+          <t>56,3%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>62,04%</t>
+          <t>62,75%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3302,32 +3302,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>206019</t>
+          <t>213248</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>197649</t>
+          <t>205586</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>213813</t>
+          <t>222213</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>57,53%</t>
+          <t>58,67%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>55,19%</t>
+          <t>56,56%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>59,71%</t>
+          <t>61,13%</t>
         </is>
       </c>
     </row>
@@ -3345,17 +3345,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>176098</t>
+          <t>175093</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>176098</t>
+          <t>175093</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>176098</t>
+          <t>175093</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3380,17 +3380,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>182017</t>
+          <t>188394</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>182017</t>
+          <t>188394</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>182017</t>
+          <t>188394</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3415,17 +3415,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>358115</t>
+          <t>363487</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>358115</t>
+          <t>363487</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>358115</t>
+          <t>363487</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3462,32 +3462,32 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>4337</t>
+          <t>3437</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>2934</t>
+          <t>2210</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>6500</t>
+          <t>5149</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -3497,32 +3497,32 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>6576</t>
+          <t>5595</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>4692</t>
+          <t>4096</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>9306</t>
+          <t>8090</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>6,52%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -3532,32 +3532,32 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>10912</t>
+          <t>9032</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>8296</t>
+          <t>6881</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>14111</t>
+          <t>11971</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>5,94%</t>
         </is>
       </c>
     </row>
@@ -3575,32 +3575,32 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>5360</t>
+          <t>4443</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>3537</t>
+          <t>2997</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>7929</t>
+          <t>6384</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>10,03%</t>
+          <t>8,24%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3610,32 +3610,32 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>11949</t>
+          <t>10129</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>9318</t>
+          <t>7957</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>15140</t>
+          <t>12974</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>8,98%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>11,38%</t>
+          <t>10,46%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3645,32 +3645,32 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>17309</t>
+          <t>14571</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>13842</t>
+          <t>11669</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>21640</t>
+          <t>17848</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>8,16%</t>
+          <t>7,23%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>6,52%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>10,2%</t>
+          <t>8,86%</t>
         </is>
       </c>
     </row>
@@ -3801,32 +3801,32 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>26901</t>
+          <t>25630</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>23256</t>
+          <t>22284</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>30872</t>
+          <t>29459</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>34,01%</t>
+          <t>33,07%</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>29,4%</t>
+          <t>28,75%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>39,03%</t>
+          <t>38,01%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -3836,32 +3836,32 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>40219</t>
+          <t>37988</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>35198</t>
+          <t>33733</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>44897</t>
+          <t>42450</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>30,22%</t>
+          <t>30,63%</t>
         </is>
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>26,45%</t>
+          <t>27,2%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>33,74%</t>
+          <t>34,23%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -3871,32 +3871,32 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>67120</t>
+          <t>63618</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>61144</t>
+          <t>58462</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>73167</t>
+          <t>69961</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
         <is>
-          <t>31,64%</t>
+          <t>31,57%</t>
         </is>
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>28,82%</t>
+          <t>29,01%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>34,49%</t>
+          <t>34,72%</t>
         </is>
       </c>
     </row>
@@ -3914,32 +3914,32 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>42492</t>
+          <t>43997</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>38680</t>
+          <t>40062</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>46502</t>
+          <t>47522</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>53,73%</t>
+          <t>56,77%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>48,91%</t>
+          <t>51,69%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>58,8%</t>
+          <t>61,31%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -3949,32 +3949,32 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>74336</t>
+          <t>70292</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>69591</t>
+          <t>65438</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>79538</t>
+          <t>74682</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>55,86%</t>
+          <t>56,69%</t>
         </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>52,29%</t>
+          <t>52,77%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>59,77%</t>
+          <t>60,23%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -3984,32 +3984,32 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>116828</t>
+          <t>114289</t>
         </is>
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>110711</t>
+          <t>107855</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>123603</t>
+          <t>119528</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>55,06%</t>
+          <t>56,72%</t>
         </is>
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>52,18%</t>
+          <t>53,52%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>58,26%</t>
+          <t>59,32%</t>
         </is>
       </c>
     </row>
@@ -4027,17 +4027,17 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>79089</t>
+          <t>77507</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>79089</t>
+          <t>77507</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>79089</t>
+          <t>77507</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -4062,17 +4062,17 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>133080</t>
+          <t>124003</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>133080</t>
+          <t>124003</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>133080</t>
+          <t>124003</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -4097,17 +4097,17 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>212169</t>
+          <t>201510</t>
         </is>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>212169</t>
+          <t>201510</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>212169</t>
+          <t>201510</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -4144,32 +4144,32 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>1866</t>
+          <t>2505</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>883</t>
+          <t>1309</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>3179</t>
+          <t>4470</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>8,72%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -4179,32 +4179,32 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>5170</t>
+          <t>5489</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>3549</t>
+          <t>3779</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>7471</t>
+          <t>8180</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -4214,32 +4214,32 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>7036</t>
+          <t>7993</t>
         </is>
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>5084</t>
+          <t>5708</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>9332</t>
+          <t>11181</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>6,47%</t>
         </is>
       </c>
     </row>
@@ -4257,32 +4257,32 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>2743</t>
+          <t>3218</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>1643</t>
+          <t>1869</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>4336</t>
+          <t>4969</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>9,21%</t>
+          <t>9,7%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -4292,32 +4292,32 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>7469</t>
+          <t>6882</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>5279</t>
+          <t>4966</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>10203</t>
+          <t>9248</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>8,48%</t>
+          <t>7,62%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -4327,32 +4327,32 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>10212</t>
+          <t>10100</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>7937</t>
+          <t>7451</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>13353</t>
+          <t>13090</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>7,58%</t>
         </is>
       </c>
     </row>
@@ -4483,32 +4483,32 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>17616</t>
+          <t>18138</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>15008</t>
+          <t>14603</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>20695</t>
+          <t>21442</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>37,43%</t>
+          <t>35,39%</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>31,89%</t>
+          <t>28,5%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>43,97%</t>
+          <t>41,84%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -4518,32 +4518,32 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>41423</t>
+          <t>40407</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>36906</t>
+          <t>35724</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>46222</t>
+          <t>45238</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>34,44%</t>
+          <t>33,27%</t>
         </is>
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>30,68%</t>
+          <t>29,42%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>38,43%</t>
+          <t>37,25%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -4553,32 +4553,32 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>59040</t>
+          <t>58545</t>
         </is>
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>53582</t>
+          <t>52295</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>65258</t>
+          <t>64523</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
         <is>
-          <t>35,28%</t>
+          <t>33,9%</t>
         </is>
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>32,02%</t>
+          <t>30,28%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>39,0%</t>
+          <t>37,36%</t>
         </is>
       </c>
     </row>
@@ -4596,32 +4596,32 @@
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>24842</t>
+          <t>27385</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>21765</t>
+          <t>23998</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>27729</t>
+          <t>30685</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>52,78%</t>
+          <t>53,44%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>46,24%</t>
+          <t>46,83%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>58,91%</t>
+          <t>59,88%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
@@ -4631,32 +4631,32 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>66215</t>
+          <t>68666</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>61276</t>
+          <t>63711</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
         <is>
-          <t>71397</t>
+          <t>73392</t>
         </is>
       </c>
       <c r="N38" s="2" t="inlineStr">
         <is>
-          <t>55,05%</t>
+          <t>56,54%</t>
         </is>
       </c>
       <c r="O38" s="2" t="inlineStr">
         <is>
-          <t>50,95%</t>
+          <t>52,46%</t>
         </is>
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>59,36%</t>
+          <t>60,43%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
@@ -4666,32 +4666,32 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>91057</t>
+          <t>96051</t>
         </is>
       </c>
       <c r="S38" s="2" t="inlineStr">
         <is>
-          <t>85379</t>
+          <t>89698</t>
         </is>
       </c>
       <c r="T38" s="2" t="inlineStr">
         <is>
-          <t>96724</t>
+          <t>101503</t>
         </is>
       </c>
       <c r="U38" s="2" t="inlineStr">
         <is>
-          <t>54,41%</t>
+          <t>55,62%</t>
         </is>
       </c>
       <c r="V38" s="2" t="inlineStr">
         <is>
-          <t>51,02%</t>
+          <t>51,94%</t>
         </is>
       </c>
       <c r="W38" s="2" t="inlineStr">
         <is>
-          <t>57,8%</t>
+          <t>58,78%</t>
         </is>
       </c>
     </row>
@@ -4709,17 +4709,17 @@
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>47067</t>
+          <t>51246</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>47067</t>
+          <t>51246</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>47067</t>
+          <t>51246</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
@@ -4744,17 +4744,17 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>120278</t>
+          <t>121443</t>
         </is>
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>120278</t>
+          <t>121443</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
         <is>
-          <t>120278</t>
+          <t>121443</t>
         </is>
       </c>
       <c r="N39" s="2" t="inlineStr">
@@ -4779,17 +4779,17 @@
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>167345</t>
+          <t>172689</t>
         </is>
       </c>
       <c r="S39" s="2" t="inlineStr">
         <is>
-          <t>167345</t>
+          <t>172689</t>
         </is>
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>167345</t>
+          <t>172689</t>
         </is>
       </c>
       <c r="U39" s="2" t="inlineStr">
@@ -4826,32 +4826,32 @@
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>35307</t>
+          <t>32538</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>30172</t>
+          <t>27950</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>40457</t>
+          <t>37656</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>5,22%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
@@ -4861,32 +4861,32 @@
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>35570</t>
+          <t>34315</t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>30554</t>
+          <t>29429</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
         <is>
-          <t>41054</t>
+          <t>39121</t>
         </is>
       </c>
       <c r="N40" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="O40" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
@@ -4896,32 +4896,32 @@
       </c>
       <c r="R40" s="2" t="inlineStr">
         <is>
-          <t>70876</t>
+          <t>66853</t>
         </is>
       </c>
       <c r="S40" s="2" t="inlineStr">
         <is>
-          <t>63574</t>
+          <t>59884</t>
         </is>
       </c>
       <c r="T40" s="2" t="inlineStr">
         <is>
-          <t>78077</t>
+          <t>73949</t>
         </is>
       </c>
       <c r="U40" s="2" t="inlineStr">
         <is>
+          <t>4,4%</t>
+        </is>
+      </c>
+      <c r="V40" s="2" t="inlineStr">
+        <is>
+          <t>3,94%</t>
+        </is>
+      </c>
+      <c r="W40" s="2" t="inlineStr">
+        <is>
           <t>4,87%</t>
-        </is>
-      </c>
-      <c r="V40" s="2" t="inlineStr">
-        <is>
-          <t>4,37%</t>
-        </is>
-      </c>
-      <c r="W40" s="2" t="inlineStr">
-        <is>
-          <t>5,37%</t>
         </is>
       </c>
     </row>
@@ -4939,32 +4939,32 @@
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>52351</t>
+          <t>50745</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>46737</t>
+          <t>44814</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>59147</t>
+          <t>56811</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>7,49%</t>
+          <t>7,03%</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>8,47%</t>
+          <t>7,88%</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
@@ -4974,32 +4974,32 @@
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>55770</t>
+          <t>54497</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>49937</t>
+          <t>48424</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>62663</t>
+          <t>60885</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>8,29%</t>
+          <t>7,64%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
@@ -5009,32 +5009,32 @@
       </c>
       <c r="R41" s="2" t="inlineStr">
         <is>
-          <t>108120</t>
+          <t>105242</t>
         </is>
       </c>
       <c r="S41" s="2" t="inlineStr">
         <is>
-          <t>99134</t>
+          <t>97075</t>
         </is>
       </c>
       <c r="T41" s="2" t="inlineStr">
         <is>
-          <t>117435</t>
+          <t>114323</t>
         </is>
       </c>
       <c r="U41" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="V41" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="W41" s="2" t="inlineStr">
         <is>
-          <t>8,08%</t>
+          <t>7,53%</t>
         </is>
       </c>
     </row>
@@ -5165,32 +5165,32 @@
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>221386</t>
+          <t>221400</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>210293</t>
+          <t>210429</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>233419</t>
+          <t>233171</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>31,69%</t>
+          <t>30,69%</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>30,1%</t>
+          <t>29,17%</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>33,41%</t>
+          <t>32,32%</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr">
@@ -5200,32 +5200,32 @@
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>231102</t>
+          <t>234942</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>219950</t>
+          <t>223683</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>242171</t>
+          <t>246978</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
         <is>
-          <t>30,59%</t>
+          <t>29,48%</t>
         </is>
       </c>
       <c r="O43" s="2" t="inlineStr">
         <is>
-          <t>29,11%</t>
+          <t>28,07%</t>
         </is>
       </c>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>32,06%</t>
+          <t>30,99%</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
@@ -5235,32 +5235,32 @@
       </c>
       <c r="R43" s="2" t="inlineStr">
         <is>
-          <t>452488</t>
+          <t>456342</t>
         </is>
       </c>
       <c r="S43" s="2" t="inlineStr">
         <is>
-          <t>438192</t>
+          <t>440374</t>
         </is>
       </c>
       <c r="T43" s="2" t="inlineStr">
         <is>
-          <t>470744</t>
+          <t>471347</t>
         </is>
       </c>
       <c r="U43" s="2" t="inlineStr">
         <is>
-          <t>31,12%</t>
+          <t>30,06%</t>
         </is>
       </c>
       <c r="V43" s="2" t="inlineStr">
         <is>
-          <t>30,14%</t>
+          <t>29,0%</t>
         </is>
       </c>
       <c r="W43" s="2" t="inlineStr">
         <is>
-          <t>32,38%</t>
+          <t>31,04%</t>
         </is>
       </c>
     </row>
@@ -5278,32 +5278,32 @@
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>389518</t>
+          <t>416723</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>377557</t>
+          <t>404836</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>400599</t>
+          <t>428915</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>55,76%</t>
+          <t>57,77%</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>54,05%</t>
+          <t>56,12%</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>57,35%</t>
+          <t>59,46%</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr">
@@ -5313,32 +5313,32 @@
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>433017</t>
+          <t>473177</t>
         </is>
       </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>420113</t>
+          <t>461302</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
         <is>
-          <t>445231</t>
+          <t>486129</t>
         </is>
       </c>
       <c r="N44" s="2" t="inlineStr">
         <is>
-          <t>57,32%</t>
+          <t>59,37%</t>
         </is>
       </c>
       <c r="O44" s="2" t="inlineStr">
         <is>
-          <t>55,61%</t>
+          <t>57,88%</t>
         </is>
       </c>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>58,94%</t>
+          <t>61,0%</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
@@ -5348,32 +5348,32 @@
       </c>
       <c r="R44" s="2" t="inlineStr">
         <is>
-          <t>822535</t>
+          <t>889900</t>
         </is>
       </c>
       <c r="S44" s="2" t="inlineStr">
         <is>
-          <t>804559</t>
+          <t>871909</t>
         </is>
       </c>
       <c r="T44" s="2" t="inlineStr">
         <is>
-          <t>838406</t>
+          <t>905801</t>
         </is>
       </c>
       <c r="U44" s="2" t="inlineStr">
         <is>
-          <t>56,57%</t>
+          <t>58,61%</t>
         </is>
       </c>
       <c r="V44" s="2" t="inlineStr">
         <is>
-          <t>55,33%</t>
+          <t>57,43%</t>
         </is>
       </c>
       <c r="W44" s="2" t="inlineStr">
         <is>
-          <t>57,66%</t>
+          <t>59,66%</t>
         </is>
       </c>
     </row>
@@ -5391,17 +5391,17 @@
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>698562</t>
+          <t>721406</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>698562</t>
+          <t>721406</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>698562</t>
+          <t>721406</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
@@ -5426,17 +5426,17 @@
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>755458</t>
+          <t>796931</t>
         </is>
       </c>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>755458</t>
+          <t>796931</t>
         </is>
       </c>
       <c r="M45" s="2" t="inlineStr">
         <is>
-          <t>755458</t>
+          <t>796931</t>
         </is>
       </c>
       <c r="N45" s="2" t="inlineStr">
@@ -5461,17 +5461,17 @@
       </c>
       <c r="R45" s="2" t="inlineStr">
         <is>
-          <t>1454019</t>
+          <t>1518337</t>
         </is>
       </c>
       <c r="S45" s="2" t="inlineStr">
         <is>
-          <t>1454019</t>
+          <t>1518337</t>
         </is>
       </c>
       <c r="T45" s="2" t="inlineStr">
         <is>
-          <t>1454019</t>
+          <t>1518337</t>
         </is>
       </c>
       <c r="U45" s="2" t="inlineStr">
@@ -5755,12 +5755,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1262</t>
+          <t>1326</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6835</t>
+          <t>6548</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -5770,47 +5770,47 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>0,65%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3,22%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3072</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>6542</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1,46%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
           <t>0,62%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>3,36%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>3072</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>1313</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>7177</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>1,46%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>0,62%</t>
-        </is>
-      </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -5825,12 +5825,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>3471</t>
+          <t>3488</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>10980</t>
+          <t>10295</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -5845,7 +5845,7 @@
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>2,49%</t>
         </is>
       </c>
     </row>
@@ -5868,12 +5868,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7758</t>
+          <t>7863</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16832</t>
+          <t>16508</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -5883,12 +5883,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,27%</t>
+          <t>8,11%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -5903,12 +5903,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>11862</t>
+          <t>11938</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>21687</t>
+          <t>21385</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -5918,12 +5918,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>10,17%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -5938,12 +5938,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>22125</t>
+          <t>21606</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>35169</t>
+          <t>35375</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -5953,12 +5953,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>5,22%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>8,55%</t>
         </is>
       </c>
     </row>
@@ -5981,12 +5981,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3446</t>
+          <t>3819</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10561</t>
+          <t>11312</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -5996,12 +5996,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -6016,12 +6016,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>2867</t>
+          <t>3017</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>9068</t>
+          <t>8347</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -6031,12 +6031,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -6051,12 +6051,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>7863</t>
+          <t>7977</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>17127</t>
+          <t>16964</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -6066,12 +6066,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>4,1%</t>
         </is>
       </c>
     </row>
@@ -6094,12 +6094,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>119889</t>
+          <t>119222</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>137784</t>
+          <t>137520</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -6109,12 +6109,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>58,87%</t>
+          <t>58,55%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>67,66%</t>
+          <t>67,53%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -6129,12 +6129,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>97748</t>
+          <t>99100</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>118714</t>
+          <t>118166</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -6144,12 +6144,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>46,5%</t>
+          <t>47,14%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>56,47%</t>
+          <t>56,21%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -6164,12 +6164,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>224453</t>
+          <t>223832</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>251221</t>
+          <t>250320</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -6179,12 +6179,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>54,23%</t>
+          <t>54,08%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>60,7%</t>
+          <t>60,48%</t>
         </is>
       </c>
     </row>
@@ -6207,12 +6207,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>46164</t>
+          <t>46095</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>62521</t>
+          <t>61781</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -6222,12 +6222,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>22,67%</t>
+          <t>22,64%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>30,7%</t>
+          <t>30,34%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -6242,12 +6242,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>67844</t>
+          <t>67433</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>87661</t>
+          <t>86634</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -6257,12 +6257,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>32,27%</t>
+          <t>32,08%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>41,7%</t>
+          <t>41,21%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -6277,12 +6277,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>117500</t>
+          <t>118772</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>143881</t>
+          <t>142565</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -6292,12 +6292,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>28,39%</t>
+          <t>28,7%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>34,77%</t>
+          <t>34,45%</t>
         </is>
       </c>
     </row>
@@ -6437,12 +6437,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>444</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4063</t>
+          <t>3887</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -6452,12 +6452,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -6472,12 +6472,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1810</t>
+          <t>2141</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>8179</t>
+          <t>8706</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -6487,47 +6487,47 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
+          <t>1,27%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>5,15%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>5788</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>3150</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>9544</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>1,97%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
           <t>1,07%</t>
         </is>
       </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>4,84%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>5788</t>
-        </is>
-      </c>
-      <c r="S10" s="2" t="inlineStr">
-        <is>
-          <t>3039</t>
-        </is>
-      </c>
-      <c r="T10" s="2" t="inlineStr">
-        <is>
-          <t>10355</t>
-        </is>
-      </c>
-      <c r="U10" s="2" t="inlineStr">
-        <is>
-          <t>1,97%</t>
-        </is>
-      </c>
-      <c r="V10" s="2" t="inlineStr">
-        <is>
-          <t>1,03%</t>
-        </is>
-      </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>3,25%</t>
         </is>
       </c>
     </row>
@@ -6550,12 +6550,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5897</t>
+          <t>6339</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13946</t>
+          <t>14793</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -6565,12 +6565,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,19%</t>
+          <t>11,87%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -6585,12 +6585,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6736</t>
+          <t>6374</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14178</t>
+          <t>13597</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -6600,12 +6600,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>8,39%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -6620,12 +6620,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>14110</t>
+          <t>14182</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>25736</t>
+          <t>25141</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -6635,12 +6635,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>8,76%</t>
+          <t>8,56%</t>
         </is>
       </c>
     </row>
@@ -6663,12 +6663,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3039</t>
+          <t>3213</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>12704</t>
+          <t>13776</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -6678,12 +6678,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>10,19%</t>
+          <t>11,05%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -6698,12 +6698,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>4965</t>
+          <t>4873</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>14530</t>
+          <t>12835</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -6713,12 +6713,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>8,6%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -6733,12 +6733,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>9245</t>
+          <t>9692</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>21866</t>
+          <t>22355</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -6748,12 +6748,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>7,45%</t>
+          <t>7,61%</t>
         </is>
       </c>
     </row>
@@ -6776,12 +6776,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>68001</t>
+          <t>67251</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>83581</t>
+          <t>82838</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -6791,12 +6791,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>54,57%</t>
+          <t>53,97%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>67,07%</t>
+          <t>66,48%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -6811,12 +6811,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>89662</t>
+          <t>90474</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>107187</t>
+          <t>107054</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -6826,12 +6826,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>53,04%</t>
+          <t>53,52%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>63,41%</t>
+          <t>63,33%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -6846,12 +6846,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>161735</t>
+          <t>162436</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>184963</t>
+          <t>185777</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -6861,12 +6861,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>55,08%</t>
+          <t>55,31%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>62,99%</t>
+          <t>63,26%</t>
         </is>
       </c>
     </row>
@@ -6889,12 +6889,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>25060</t>
+          <t>25145</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>39213</t>
+          <t>38774</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -6904,12 +6904,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>20,11%</t>
+          <t>20,18%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>31,47%</t>
+          <t>31,12%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -6924,12 +6924,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>40396</t>
+          <t>41679</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>56810</t>
+          <t>56889</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -6939,12 +6939,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>23,9%</t>
+          <t>24,66%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>33,61%</t>
+          <t>33,65%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -6959,12 +6959,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>69357</t>
+          <t>70129</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>90593</t>
+          <t>90884</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -6974,12 +6974,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>23,62%</t>
+          <t>23,88%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>30,85%</t>
+          <t>30,95%</t>
         </is>
       </c>
     </row>
@@ -7124,7 +7124,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3078</t>
+          <t>2971</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -7139,7 +7139,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -7159,7 +7159,7 @@
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>1582</t>
+          <t>1615</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -7174,7 +7174,7 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -7189,12 +7189,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>424</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>3437</t>
+          <t>3491</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -7204,12 +7204,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>2,3%</t>
         </is>
       </c>
     </row>
@@ -7232,12 +7232,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4311</t>
+          <t>4144</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12405</t>
+          <t>12445</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -7247,12 +7247,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>13,16%</t>
+          <t>13,2%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -7267,12 +7267,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1053</t>
+          <t>1107</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>5505</t>
+          <t>5459</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -7282,12 +7282,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>9,59%</t>
+          <t>9,51%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -7302,12 +7302,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>6440</t>
+          <t>6602</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>15603</t>
+          <t>15620</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -7317,12 +7317,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>10,29%</t>
+          <t>10,3%</t>
         </is>
       </c>
     </row>
@@ -7345,12 +7345,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1139</t>
+          <t>1295</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>7946</t>
+          <t>8363</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -7360,12 +7360,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>8,43%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -7380,12 +7380,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>66</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>1481</t>
+          <t>1615</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -7395,12 +7395,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -7415,12 +7415,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>1470</t>
+          <t>1526</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>8236</t>
+          <t>8668</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -7430,12 +7430,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>5,71%</t>
         </is>
       </c>
     </row>
@@ -7458,12 +7458,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>48263</t>
+          <t>48194</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>62799</t>
+          <t>63664</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -7473,82 +7473,82 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>51,18%</t>
+          <t>51,11%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
+          <t>67,51%</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>34894</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>28897</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>40536</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>60,79%</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>50,34%</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>70,62%</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>91316</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>81663</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>101028</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>60,19%</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>53,83%</t>
+        </is>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
           <t>66,6%</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>34894</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>29095</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>40675</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>60,79%</t>
-        </is>
-      </c>
-      <c r="O19" s="2" t="inlineStr">
-        <is>
-          <t>50,69%</t>
-        </is>
-      </c>
-      <c r="P19" s="2" t="inlineStr">
-        <is>
-          <t>70,86%</t>
-        </is>
-      </c>
-      <c r="Q19" s="2" t="inlineStr">
-        <is>
-          <t>208</t>
-        </is>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>91316</t>
-        </is>
-      </c>
-      <c r="S19" s="2" t="inlineStr">
-        <is>
-          <t>81434</t>
-        </is>
-      </c>
-      <c r="T19" s="2" t="inlineStr">
-        <is>
-          <t>101595</t>
-        </is>
-      </c>
-      <c r="U19" s="2" t="inlineStr">
-        <is>
-          <t>60,19%</t>
-        </is>
-      </c>
-      <c r="V19" s="2" t="inlineStr">
-        <is>
-          <t>53,68%</t>
-        </is>
-      </c>
-      <c r="W19" s="2" t="inlineStr">
-        <is>
-          <t>66,97%</t>
         </is>
       </c>
     </row>
@@ -7571,12 +7571,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>20068</t>
+          <t>19741</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>33210</t>
+          <t>34661</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -7586,12 +7586,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>21,28%</t>
+          <t>20,94%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>35,22%</t>
+          <t>36,76%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -7606,12 +7606,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>13842</t>
+          <t>13818</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>25641</t>
+          <t>24964</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -7621,12 +7621,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>24,11%</t>
+          <t>24,07%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>44,67%</t>
+          <t>43,49%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -7641,12 +7641,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>36247</t>
+          <t>36388</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>54711</t>
+          <t>55054</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -7656,12 +7656,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>23,89%</t>
+          <t>23,99%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>36,07%</t>
+          <t>36,29%</t>
         </is>
       </c>
     </row>
@@ -7801,12 +7801,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>1288</t>
+          <t>1205</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>6349</t>
+          <t>6416</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -7816,12 +7816,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -7836,12 +7836,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>1233</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>6646</t>
+          <t>7040</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -7851,12 +7851,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -7871,12 +7871,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>3049</t>
+          <t>3091</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>10270</t>
+          <t>9754</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -7886,12 +7886,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>3,04%</t>
         </is>
       </c>
     </row>
@@ -7914,12 +7914,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>5820</t>
+          <t>6462</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>19830</t>
+          <t>20726</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -7929,12 +7929,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>12,16%</t>
+          <t>12,71%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -7949,12 +7949,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>10217</t>
+          <t>9604</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>21332</t>
+          <t>20840</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -7964,12 +7964,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>13,51%</t>
+          <t>13,2%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -7984,12 +7984,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>19322</t>
+          <t>18348</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>36353</t>
+          <t>34986</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -7999,12 +7999,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>11,32%</t>
+          <t>10,9%</t>
         </is>
       </c>
     </row>
@@ -8027,12 +8027,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2375</t>
+          <t>2329</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>9749</t>
+          <t>9628</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -8042,12 +8042,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -8062,12 +8062,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>2431</t>
+          <t>2339</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>8561</t>
+          <t>8564</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -8077,7 +8077,7 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
@@ -8097,12 +8097,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>5921</t>
+          <t>5974</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>16175</t>
+          <t>15440</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -8112,12 +8112,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>4,81%</t>
         </is>
       </c>
     </row>
@@ -8140,12 +8140,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>84790</t>
+          <t>83648</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>105599</t>
+          <t>106368</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -8155,12 +8155,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>51,99%</t>
+          <t>51,29%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>64,75%</t>
+          <t>65,22%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -8175,12 +8175,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>88534</t>
+          <t>88716</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>106720</t>
+          <t>107600</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -8190,12 +8190,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>56,06%</t>
+          <t>56,18%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>67,58%</t>
+          <t>68,13%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -8210,12 +8210,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>178591</t>
+          <t>178373</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>207374</t>
+          <t>208583</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -8225,12 +8225,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>55,63%</t>
+          <t>55,57%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>64,6%</t>
+          <t>64,98%</t>
         </is>
       </c>
     </row>
@@ -8253,12 +8253,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>39537</t>
+          <t>38505</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>61248</t>
+          <t>61125</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -8268,12 +8268,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>24,24%</t>
+          <t>23,61%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>37,56%</t>
+          <t>37,48%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -8288,12 +8288,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>29933</t>
+          <t>28834</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>46313</t>
+          <t>46067</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -8303,12 +8303,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>18,95%</t>
+          <t>18,26%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>29,33%</t>
+          <t>29,17%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -8323,12 +8323,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>73217</t>
+          <t>71306</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>100527</t>
+          <t>101544</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -8338,12 +8338,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>22,81%</t>
+          <t>22,21%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>31,32%</t>
+          <t>31,63%</t>
         </is>
       </c>
     </row>
@@ -8488,7 +8488,7 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>4522</t>
+          <t>4356</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -8503,7 +8503,7 @@
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>8,42%</t>
+          <t>8,11%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -8518,12 +8518,12 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>699</t>
+          <t>567</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>6543</t>
+          <t>6386</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -8533,12 +8533,12 @@
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -8553,12 +8553,12 @@
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>1071</t>
+          <t>1239</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>7490</t>
+          <t>7329</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -8568,12 +8568,12 @@
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>4,95%</t>
         </is>
       </c>
     </row>
@@ -8596,12 +8596,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>1312</t>
+          <t>1694</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>9659</t>
+          <t>10278</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -8611,12 +8611,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>17,98%</t>
+          <t>19,14%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -8631,12 +8631,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>7511</t>
+          <t>7209</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>19495</t>
+          <t>18255</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -8646,12 +8646,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>7,63%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>20,64%</t>
+          <t>19,33%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -8666,12 +8666,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>9993</t>
+          <t>9899</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>23818</t>
+          <t>23022</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -8681,12 +8681,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>16,08%</t>
+          <t>15,54%</t>
         </is>
       </c>
     </row>
@@ -8714,7 +8714,7 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>4606</t>
+          <t>4578</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -8729,7 +8729,7 @@
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>8,58%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -8744,12 +8744,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>770</t>
+          <t>776</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>11676</t>
+          <t>11799</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -8764,7 +8764,7 @@
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>12,36%</t>
+          <t>12,49%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -8779,12 +8779,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>1528</t>
+          <t>1577</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>13087</t>
+          <t>13867</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -8794,12 +8794,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>9,36%</t>
         </is>
       </c>
     </row>
@@ -8822,12 +8822,12 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>28258</t>
+          <t>28284</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>40234</t>
+          <t>40420</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -8837,12 +8837,12 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>52,61%</t>
+          <t>52,66%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>74,91%</t>
+          <t>75,26%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -8857,12 +8857,12 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>43192</t>
+          <t>44299</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>60237</t>
+          <t>59915</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -8872,12 +8872,12 @@
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>45,73%</t>
+          <t>46,91%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>63,78%</t>
+          <t>63,44%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -8892,12 +8892,12 @@
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>77539</t>
+          <t>77127</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>97572</t>
+          <t>97251</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -8907,12 +8907,12 @@
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>52,34%</t>
+          <t>52,06%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>65,86%</t>
+          <t>65,64%</t>
         </is>
       </c>
     </row>
@@ -8935,12 +8935,12 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>8630</t>
+          <t>8321</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>19964</t>
+          <t>18842</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -8950,12 +8950,12 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>16,07%</t>
+          <t>15,49%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>37,17%</t>
+          <t>35,08%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -8970,12 +8970,12 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>17548</t>
+          <t>17736</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>32117</t>
+          <t>31953</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -8985,12 +8985,12 @@
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>18,58%</t>
+          <t>18,78%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>34,01%</t>
+          <t>33,83%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -9005,12 +9005,12 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>28707</t>
+          <t>29050</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>47042</t>
+          <t>46502</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
@@ -9020,12 +9020,12 @@
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>19,38%</t>
+          <t>19,61%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>31,75%</t>
+          <t>31,39%</t>
         </is>
       </c>
     </row>
@@ -9200,12 +9200,12 @@
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>787</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>6233</t>
+          <t>6229</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -9215,12 +9215,12 @@
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>9,84%</t>
+          <t>9,83%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -9235,12 +9235,12 @@
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>759</t>
+          <t>702</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>6174</t>
+          <t>6353</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
@@ -9250,12 +9250,12 @@
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>6,36%</t>
         </is>
       </c>
     </row>
@@ -9278,12 +9278,12 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>952</t>
+          <t>973</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>10831</t>
+          <t>11278</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -9293,12 +9293,12 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>29,64%</t>
+          <t>30,86%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -9313,12 +9313,12 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>2470</t>
+          <t>2334</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>9663</t>
+          <t>9454</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -9328,12 +9328,12 @@
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>15,25%</t>
+          <t>14,92%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -9348,12 +9348,12 @@
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>4781</t>
+          <t>4720</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>17003</t>
+          <t>17223</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
@@ -9363,12 +9363,12 @@
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>17,02%</t>
+          <t>17,24%</t>
         </is>
       </c>
     </row>
@@ -9396,7 +9396,7 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>2269</t>
+          <t>2545</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
@@ -9411,7 +9411,7 @@
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>6,96%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -9426,12 +9426,12 @@
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>1895</t>
+          <t>1742</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>8228</t>
+          <t>7975</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
@@ -9441,12 +9441,12 @@
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>12,99%</t>
+          <t>12,59%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -9461,12 +9461,12 @@
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>2245</t>
+          <t>2537</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>8621</t>
+          <t>8801</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
@@ -9476,12 +9476,12 @@
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>8,81%</t>
         </is>
       </c>
     </row>
@@ -9504,12 +9504,12 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>15980</t>
+          <t>16270</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>26345</t>
+          <t>26285</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
@@ -9519,12 +9519,12 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>43,72%</t>
+          <t>44,52%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>72,09%</t>
+          <t>71,92%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -9539,12 +9539,12 @@
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>28770</t>
+          <t>29406</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>40847</t>
+          <t>40696</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
@@ -9554,12 +9554,12 @@
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>45,41%</t>
+          <t>46,42%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>64,48%</t>
+          <t>64,24%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -9574,12 +9574,12 @@
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>47772</t>
+          <t>48239</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>64056</t>
+          <t>64579</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
@@ -9589,12 +9589,12 @@
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>47,82%</t>
+          <t>48,29%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>64,12%</t>
+          <t>64,65%</t>
         </is>
       </c>
     </row>
@@ -9617,12 +9617,12 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>6484</t>
+          <t>7046</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>16122</t>
+          <t>16478</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
@@ -9632,12 +9632,12 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>17,74%</t>
+          <t>19,28%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>44,11%</t>
+          <t>45,09%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
@@ -9652,12 +9652,12 @@
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>11707</t>
+          <t>11956</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
         <is>
-          <t>21831</t>
+          <t>22173</t>
         </is>
       </c>
       <c r="N38" s="2" t="inlineStr">
@@ -9667,12 +9667,12 @@
       </c>
       <c r="O38" s="2" t="inlineStr">
         <is>
-          <t>18,48%</t>
+          <t>18,87%</t>
         </is>
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>34,46%</t>
+          <t>35,0%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
@@ -9687,12 +9687,12 @@
       </c>
       <c r="S38" s="2" t="inlineStr">
         <is>
-          <t>21006</t>
+          <t>20747</t>
         </is>
       </c>
       <c r="T38" s="2" t="inlineStr">
         <is>
-          <t>34814</t>
+          <t>34629</t>
         </is>
       </c>
       <c r="U38" s="2" t="inlineStr">
@@ -9702,12 +9702,12 @@
       </c>
       <c r="V38" s="2" t="inlineStr">
         <is>
-          <t>21,03%</t>
+          <t>20,77%</t>
         </is>
       </c>
       <c r="W38" s="2" t="inlineStr">
         <is>
-          <t>34,85%</t>
+          <t>34,66%</t>
         </is>
       </c>
     </row>
@@ -9847,12 +9847,12 @@
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>5919</t>
+          <t>5875</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>14278</t>
+          <t>13745</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
@@ -9862,12 +9862,12 @@
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
@@ -9882,12 +9882,12 @@
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>9893</t>
+          <t>10321</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
         <is>
-          <t>22272</t>
+          <t>21756</t>
         </is>
       </c>
       <c r="N40" s="2" t="inlineStr">
@@ -9897,12 +9897,12 @@
       </c>
       <c r="O40" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
@@ -9917,12 +9917,12 @@
       </c>
       <c r="S40" s="2" t="inlineStr">
         <is>
-          <t>18503</t>
+          <t>18268</t>
         </is>
       </c>
       <c r="T40" s="2" t="inlineStr">
         <is>
-          <t>32322</t>
+          <t>32224</t>
         </is>
       </c>
       <c r="U40" s="2" t="inlineStr">
@@ -9932,7 +9932,7 @@
       </c>
       <c r="V40" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="W40" s="2" t="inlineStr">
@@ -9960,12 +9960,12 @@
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>37004</t>
+          <t>36936</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>58887</t>
+          <t>59011</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
@@ -9975,12 +9975,12 @@
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
+          <t>8,73%</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
@@ -9995,12 +9995,12 @@
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>50721</t>
+          <t>50391</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>72766</t>
+          <t>73017</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
@@ -10010,12 +10010,12 @@
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>9,67%</t>
+          <t>9,7%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
@@ -10030,12 +10030,12 @@
       </c>
       <c r="S41" s="2" t="inlineStr">
         <is>
-          <t>93103</t>
+          <t>92776</t>
         </is>
       </c>
       <c r="T41" s="2" t="inlineStr">
         <is>
-          <t>123306</t>
+          <t>125960</t>
         </is>
       </c>
       <c r="U41" s="2" t="inlineStr">
@@ -10045,12 +10045,12 @@
       </c>
       <c r="V41" s="2" t="inlineStr">
         <is>
-          <t>6,52%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="W41" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>8,82%</t>
         </is>
       </c>
     </row>
@@ -10073,12 +10073,12 @@
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>16292</t>
+          <t>16391</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>32032</t>
+          <t>33310</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
@@ -10088,12 +10088,12 @@
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
@@ -10108,12 +10108,12 @@
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>19348</t>
+          <t>19762</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>35264</t>
+          <t>36420</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
@@ -10123,12 +10123,12 @@
       </c>
       <c r="O42" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
@@ -10143,12 +10143,12 @@
       </c>
       <c r="S42" s="2" t="inlineStr">
         <is>
-          <t>39842</t>
+          <t>39764</t>
         </is>
       </c>
       <c r="T42" s="2" t="inlineStr">
         <is>
-          <t>61370</t>
+          <t>63640</t>
         </is>
       </c>
       <c r="U42" s="2" t="inlineStr">
@@ -10158,12 +10158,12 @@
       </c>
       <c r="V42" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="W42" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>4,46%</t>
         </is>
       </c>
     </row>
@@ -10186,12 +10186,12 @@
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>394162</t>
+          <t>393559</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>432650</t>
+          <t>432213</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
@@ -10201,12 +10201,12 @@
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>58,32%</t>
+          <t>58,23%</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>64,01%</t>
+          <t>63,95%</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr">
@@ -10221,12 +10221,12 @@
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>406953</t>
+          <t>406708</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>446780</t>
+          <t>448472</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
@@ -10236,12 +10236,12 @@
       </c>
       <c r="O43" s="2" t="inlineStr">
         <is>
-          <t>54,09%</t>
+          <t>54,06%</t>
         </is>
       </c>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>59,38%</t>
+          <t>59,61%</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
@@ -10256,12 +10256,12 @@
       </c>
       <c r="S43" s="2" t="inlineStr">
         <is>
-          <t>810363</t>
+          <t>811677</t>
         </is>
       </c>
       <c r="T43" s="2" t="inlineStr">
         <is>
-          <t>867052</t>
+          <t>869706</t>
         </is>
       </c>
       <c r="U43" s="2" t="inlineStr">
@@ -10271,12 +10271,12 @@
       </c>
       <c r="V43" s="2" t="inlineStr">
         <is>
-          <t>56,74%</t>
+          <t>56,83%</t>
         </is>
       </c>
       <c r="W43" s="2" t="inlineStr">
         <is>
-          <t>60,71%</t>
+          <t>60,89%</t>
         </is>
       </c>
     </row>
@@ -10299,12 +10299,12 @@
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>165444</t>
+          <t>166271</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>201810</t>
+          <t>203555</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
@@ -10314,12 +10314,12 @@
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>24,48%</t>
+          <t>24,6%</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>29,86%</t>
+          <t>30,12%</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr">
@@ -10334,12 +10334,12 @@
       </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>205602</t>
+          <t>204891</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
         <is>
-          <t>242508</t>
+          <t>240893</t>
         </is>
       </c>
       <c r="N44" s="2" t="inlineStr">
@@ -10349,12 +10349,12 @@
       </c>
       <c r="O44" s="2" t="inlineStr">
         <is>
-          <t>27,33%</t>
+          <t>27,23%</t>
         </is>
       </c>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>32,23%</t>
+          <t>32,02%</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
@@ -10369,12 +10369,12 @@
       </c>
       <c r="S44" s="2" t="inlineStr">
         <is>
-          <t>379856</t>
+          <t>380224</t>
         </is>
       </c>
       <c r="T44" s="2" t="inlineStr">
         <is>
-          <t>433171</t>
+          <t>434242</t>
         </is>
       </c>
       <c r="U44" s="2" t="inlineStr">
@@ -10384,12 +10384,12 @@
       </c>
       <c r="V44" s="2" t="inlineStr">
         <is>
-          <t>26,6%</t>
+          <t>26,62%</t>
         </is>
       </c>
       <c r="W44" s="2" t="inlineStr">
         <is>
-          <t>30,33%</t>
+          <t>30,4%</t>
         </is>
       </c>
     </row>
